--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>parameter</t>
   </si>
@@ -28,22 +28,46 @@
     <t>exponent</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>c1</t>
   </si>
   <si>
     <t>1e3</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
     <t>c2</t>
   </si>
   <si>
     <t>1e-4</t>
   </si>
   <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>c3</t>
   </si>
   <si>
     <t>1e-1</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -93,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -104,11 +128,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -436,22 +466,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -467,9 +497,15 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -481,370 +517,386 @@
       <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
         <v>0.5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>parameter</t>
   </si>
@@ -34,7 +34,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t/>
+    <t>type</t>
+  </si>
+  <si>
+    <t>initial</t>
   </si>
   <si>
     <t>c1</t>
@@ -49,6 +52,9 @@
     <t>MPa</t>
   </si>
   <si>
+    <t>yielding</t>
+  </si>
+  <si>
     <t>c2</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>dimensionless</t>
+  </si>
+  <si>
+    <t>hardening</t>
   </si>
   <si>
     <t>c3</t>
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,26 +137,20 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -466,22 +469,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -503,10 +506,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -517,386 +522,394 @@
       <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
         <v>0.5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
         <v>0.5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="H4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>parameter</t>
   </si>
@@ -34,10 +34,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>initial</t>
+    <t/>
   </si>
   <si>
     <t>c1</t>
@@ -52,9 +49,6 @@
     <t>MPa</t>
   </si>
   <si>
-    <t>yielding</t>
-  </si>
-  <si>
     <t>c2</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>dimensionless</t>
-  </si>
-  <si>
-    <t>hardening</t>
   </si>
   <si>
     <t>c3</t>
@@ -126,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -137,20 +128,26 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -469,22 +466,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -506,12 +503,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -522,394 +517,386 @@
       <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>parameter</t>
   </si>
@@ -34,7 +34,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t/>
+    <t>type</t>
   </si>
   <si>
     <t>c1</t>
@@ -49,6 +49,9 @@
     <t>MPa</t>
   </si>
   <si>
+    <t>yielding</t>
+  </si>
+  <si>
     <t>c2</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>dimensionless</t>
+  </si>
+  <si>
+    <t>hardening</t>
   </si>
   <si>
     <t>c3</t>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,28 +134,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -460,28 +460,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -503,7 +502,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>
@@ -514,19 +513,18 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -535,368 +533,351 @@
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_room_Swift_NDBR50_curve2/paramInfo.xlsx
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,16 +152,34 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -466,21 +490,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -493,7 +517,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -558,7 +582,7 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -586,13 +610,13 @@
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -611,10 +635,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -628,11 +652,11 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -645,12 +669,12 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -662,13 +686,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="7"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -679,14 +703,14 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -696,15 +720,15 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -713,16 +737,16 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
@@ -730,9 +754,9 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -740,16 +764,16 @@
       <c r="K12" s="7"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -758,15 +782,15 @@
       <c r="L13" s="7"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -778,12 +802,12 @@
       <c r="O14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -796,11 +820,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -814,10 +838,10 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -832,9 +856,9 @@
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -850,8 +874,8 @@
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -868,7 +892,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
